--- a/nr-rm-extension-nationality/ig/StructureDefinition-as-dr-person.xlsx
+++ b/nr-rm-extension-nationality/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T12:07:38+00:00</t>
+    <t>2025-10-08T12:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -455,7 +455,7 @@
     <t>Person.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -530,7 +530,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -573,7 +573,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -837,7 +837,7 @@
 </t>
   </si>
   <si>
-    <t>Le nom de famille (également nommé nom de naissance) ou le nom d'usage du professionnel.</t>
+    <t>Le nom civil (également nommé nom de naissance ou nom de famille).</t>
   </si>
   <si>
     <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
@@ -865,7 +865,7 @@
 middle name</t>
   </si>
   <si>
-    <t>Prénom(s) déclarés à sa naissance du professionnel.</t>
+    <t>Prénom(s) civil(s) déclarés à la naissance du professionnel.</t>
   </si>
   <si>
     <t>Given name.</t>
@@ -1224,7 +1224,7 @@
     <t>Person.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1308,7 +1308,7 @@
     <t>Person.link.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|RelatedPerson|Person)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|RelatedPerson|4.0.1|Person|4.0.1)
 </t>
   </si>
   <si>
@@ -2419,7 +2419,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>202</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>209</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>228</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>304</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>355</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>365</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>382</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>394</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>425</v>
       </c>
@@ -8681,12 +8681,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN61">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
